--- a/medicine/Enfance/Jean_Molla/Jean_Molla.xlsx
+++ b/medicine/Enfance/Jean_Molla/Jean_Molla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Molla, né le 28 décembre 1958  à Oujda au Maroc, est un auteur français de livres pour la jeunesse. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir fait des études de lettres à Tours et à Poitiers, il continue en tourisme. En 2000, il publie son premier roman, Comptines à dormir debout. Il est professeur de français au collège Pierre-de-Ronsard, dans une zone d'éducation prioritaire à Poitiers. Il a d'abord été apiculteur, puis professeur de guitare classique et guide dans un musée pour finalement devenir professeur de lettres.
-Il a écrit de nombreuses nouvelles et de nombreux romans. Il est couronné du Prix des Incorruptibles 2009[1], catégorie 5e/4e, pour La Revanche de l'ombre rouge.
+Il a écrit de nombreuses nouvelles et de nombreux romans. Il est couronné du Prix des Incorruptibles 2009, catégorie 5e/4e, pour La Revanche de l'ombre rouge.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2000: Copie conforme, coll. Lampe de poche, éd. Grasset Jeunesse ;
 2001 : L’alphabet farfelu, coécrit et illustré par Marie-Pierre Schneegans, coll. 2/2=4, éd. Grasset Jeunesse ;
@@ -565,7 +581,7 @@
 2006 : Le jardin des sortilèges, coll. Rageot romans, éd. Rageot ;
 2006 : Le sort d’Éternité, T1 de "Les revenants", Hors série, éd. Rageot ;
 2007 : La tentation de l'ombre, T2 de "Les revenants", Hors série, éd. Rageot ;
-2007 : La revanche de l'ombre rouge, recueil de nouvelles, éd. Thierry Magnier, Prix des Incorruptibles 2009[1], catégorie 5e/4e +
+2007 : La revanche de l'ombre rouge, recueil de nouvelles, éd. Thierry Magnier, Prix des Incorruptibles 2009, catégorie 5e/4e +
 2008 : Le puits des âmes perdues, T3 de "Les revenants", Hors série, éd. Rageot ;
 2009 : Le parfum du ruban vert, T4 de "Les revenants", Hors série, éd. Rageot ;
 2010 : Amour en cage, recueil de nouvelles, éd. Thierry Magnier ;</t>
